--- a/Dane.xlsx
+++ b/Dane.xlsx
@@ -1,24 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_magazyn\_Python\_skrypty\02_Przekroje\_testy\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3D04F4-42DB-47AD-B03F-8F9CE60BF13D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-210" windowWidth="29040" windowHeight="18240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-210" windowWidth="29040" windowHeight="16560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="00_Dane podstawowe" sheetId="9" r:id="rId1"/>
     <sheet name="01_Zestawienie obiektów" sheetId="8" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -676,8 +670,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1805,7 +1799,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1857,7 +1851,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2051,36 +2045,36 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F551F72A-C2C9-4E45-AC77-99F82A3A5C26}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:Z108"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:R108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="5" ySplit="4" topLeftCell="F14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G52" sqref="G52"/>
+      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" style="68" hidden="1" customWidth="1"/>
@@ -2096,7 +2090,7 @@
     <col min="61" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:16" ht="15.75" thickBot="1">
       <c r="C1" s="1"/>
       <c r="D1" s="68"/>
       <c r="E1" s="1"/>
@@ -2110,7 +2104,7 @@
       <c r="O1" s="68"/>
       <c r="P1" s="68"/>
     </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16">
       <c r="B2" s="91" t="s">
         <v>50</v>
       </c>
@@ -2144,7 +2138,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16">
       <c r="B3" s="91" t="s">
         <v>51</v>
       </c>
@@ -2176,7 +2170,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" ht="15.75" thickBot="1">
       <c r="B4" s="91" t="s">
         <v>52</v>
       </c>
@@ -2204,7 +2198,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" ht="15.75" thickBot="1">
       <c r="B5" s="108" t="s">
         <v>193</v>
       </c>
@@ -2220,7 +2214,7 @@
       <c r="J5" s="112"/>
       <c r="K5" s="112"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16">
       <c r="B6" s="92" t="s">
         <v>48</v>
       </c>
@@ -2252,7 +2246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" ht="15.75" thickBot="1">
       <c r="B7" s="92" t="s">
         <v>101</v>
       </c>
@@ -2267,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="52">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H7" s="52">
         <v>0</v>
@@ -2282,7 +2276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16">
       <c r="B8" s="93" t="s">
         <v>0</v>
       </c>
@@ -2314,7 +2308,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16">
       <c r="B9" s="93" t="s">
         <v>1</v>
       </c>
@@ -2328,10 +2322,10 @@
         <v>56</v>
       </c>
       <c r="F9" s="49">
+        <v>-2.5</v>
+      </c>
+      <c r="G9" s="49">
         <v>2.5</v>
-      </c>
-      <c r="G9" s="49">
-        <v>-2.5</v>
       </c>
       <c r="H9" s="49">
         <v>2.5</v>
@@ -2346,7 +2340,7 @@
         <v>-2.5</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16">
       <c r="B10" s="93" t="s">
         <v>35</v>
       </c>
@@ -2374,7 +2368,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" ht="15.75" thickBot="1">
       <c r="B11" s="93" t="s">
         <v>31</v>
       </c>
@@ -2400,7 +2394,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16">
       <c r="B12" s="93" t="s">
         <v>2</v>
       </c>
@@ -2432,7 +2426,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16">
       <c r="B13" s="93" t="s">
         <v>3</v>
       </c>
@@ -2446,10 +2440,10 @@
         <v>56</v>
       </c>
       <c r="F13" s="49">
+        <v>2.5</v>
+      </c>
+      <c r="G13" s="49">
         <v>-2.5</v>
-      </c>
-      <c r="G13" s="49">
-        <v>2.5</v>
       </c>
       <c r="H13" s="49">
         <v>-2.5</v>
@@ -2464,7 +2458,7 @@
         <v>-2.5</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16">
       <c r="B14" s="93" t="s">
         <v>36</v>
       </c>
@@ -2474,7 +2468,7 @@
       </c>
       <c r="E14" s="98"/>
       <c r="F14" s="54" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G14" s="54" t="s">
         <v>34</v>
@@ -2492,7 +2486,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" ht="15.75" thickBot="1">
       <c r="B15" s="93" t="s">
         <v>32</v>
       </c>
@@ -2518,7 +2512,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16">
       <c r="B16" s="93" t="s">
         <v>6</v>
       </c>
@@ -2532,13 +2526,13 @@
         <v>55</v>
       </c>
       <c r="F16" s="51">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="G16" s="51">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="H16" s="51">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I16" s="51">
         <v>0</v>
@@ -2550,7 +2544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" ht="15.75" thickBot="1">
       <c r="B17" s="93" t="s">
         <v>7</v>
       </c>
@@ -2562,10 +2556,10 @@
         <v>56</v>
       </c>
       <c r="F17" s="52">
-        <v>2.5</v>
+        <v>-2.5</v>
       </c>
       <c r="G17" s="52">
-        <v>-2.5</v>
+        <v>0</v>
       </c>
       <c r="H17" s="52">
         <v>2.5</v>
@@ -2580,7 +2574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11">
       <c r="B18" s="93" t="s">
         <v>8</v>
       </c>
@@ -2597,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="53">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H18" s="53">
         <v>0</v>
@@ -2612,7 +2606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:11" ht="15.75" thickBot="1">
       <c r="B19" s="93" t="s">
         <v>9</v>
       </c>
@@ -2627,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="52">
-        <v>0</v>
+        <v>-2.5</v>
       </c>
       <c r="H19" s="52">
         <v>0</v>
@@ -2642,7 +2636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11">
       <c r="B20" s="93" t="s">
         <v>10</v>
       </c>
@@ -2674,7 +2668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:11" ht="15.75" thickBot="1">
       <c r="B21" s="93" t="s">
         <v>11</v>
       </c>
@@ -2704,7 +2698,7 @@
         <v>-2.5</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11">
       <c r="B22" s="93" t="s">
         <v>12</v>
       </c>
@@ -2736,7 +2730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:11" ht="15.75" thickBot="1">
       <c r="B23" s="93" t="s">
         <v>13</v>
       </c>
@@ -2766,7 +2760,7 @@
         <v>-2.5</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11">
       <c r="B24" s="93" t="s">
         <v>37</v>
       </c>
@@ -2780,7 +2774,7 @@
         <v>55</v>
       </c>
       <c r="F24" s="51">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="G24" s="51">
         <v>0.9</v>
@@ -2798,7 +2792,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11">
       <c r="B25" s="93" t="s">
         <v>38</v>
       </c>
@@ -2828,7 +2822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11">
       <c r="B26" s="93" t="s">
         <v>39</v>
       </c>
@@ -2858,7 +2852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11">
       <c r="B27" s="93" t="s">
         <v>4</v>
       </c>
@@ -2888,7 +2882,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11">
       <c r="B28" s="93" t="s">
         <v>29</v>
       </c>
@@ -2918,7 +2912,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="29" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:11" ht="15.75" thickBot="1">
       <c r="B29" s="93" t="s">
         <v>45</v>
       </c>
@@ -2946,7 +2940,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11">
       <c r="B30" s="93" t="s">
         <v>40</v>
       </c>
@@ -2972,13 +2966,13 @@
         <v>1.2</v>
       </c>
       <c r="J30" s="53">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="K30" s="53">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11">
       <c r="B31" s="93" t="s">
         <v>41</v>
       </c>
@@ -3005,10 +2999,10 @@
         <v>2</v>
       </c>
       <c r="K31" s="49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11">
       <c r="B32" s="93" t="s">
         <v>42</v>
       </c>
@@ -3038,7 +3032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:18">
       <c r="B33" s="93" t="s">
         <v>5</v>
       </c>
@@ -3068,7 +3062,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:18">
       <c r="B34" s="93" t="s">
         <v>30</v>
       </c>
@@ -3098,7 +3092,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="35" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:18" ht="15.75" thickBot="1">
       <c r="B35" s="93" t="s">
         <v>46</v>
       </c>
@@ -3126,7 +3120,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:18">
       <c r="B36" s="93" t="s">
         <v>14</v>
       </c>
@@ -3157,7 +3151,7 @@
       </c>
       <c r="Q36" s="4"/>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:18">
       <c r="B37" s="93" t="s">
         <v>16</v>
       </c>
@@ -3187,7 +3181,7 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:18">
       <c r="B38" s="93" t="s">
         <v>17</v>
       </c>
@@ -3219,7 +3213,7 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:18">
       <c r="B39" s="93" t="s">
         <v>26</v>
       </c>
@@ -3249,7 +3243,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
     </row>
-    <row r="40" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:18" ht="15.75" thickBot="1">
       <c r="B40" s="93" t="s">
         <v>27</v>
       </c>
@@ -3283,7 +3277,7 @@
       </c>
       <c r="R40" s="4"/>
     </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:18">
       <c r="B41" s="93" t="s">
         <v>18</v>
       </c>
@@ -3301,7 +3295,7 @@
         <v>24</v>
       </c>
       <c r="H41" s="62" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="I41" s="62" t="s">
         <v>24</v>
@@ -3315,7 +3309,7 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:18">
       <c r="B42" s="93" t="s">
         <v>19</v>
       </c>
@@ -3345,7 +3339,7 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:18">
       <c r="B43" s="93" t="s">
         <v>20</v>
       </c>
@@ -3377,7 +3371,7 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:18">
       <c r="B44" s="93" t="s">
         <v>43</v>
       </c>
@@ -3407,7 +3401,7 @@
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
     </row>
-    <row r="45" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:18" ht="15.75" thickBot="1">
       <c r="B45" s="93" t="s">
         <v>44</v>
       </c>
@@ -3441,7 +3435,7 @@
       </c>
       <c r="R45" s="4"/>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:18">
       <c r="B46" s="93" t="s">
         <v>21</v>
       </c>
@@ -3473,7 +3467,7 @@
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
     </row>
-    <row r="47" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:18" ht="15.75" thickBot="1">
       <c r="B47" s="93" t="s">
         <v>22</v>
       </c>
@@ -3504,7 +3498,7 @@
       </c>
       <c r="Q47" s="4"/>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:18">
       <c r="B48" s="93" t="s">
         <v>23</v>
       </c>
@@ -3535,7 +3529,7 @@
       </c>
       <c r="Q48" s="4"/>
     </row>
-    <row r="49" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:17" ht="15.75" thickBot="1">
       <c r="B49" s="93" t="s">
         <v>25</v>
       </c>
@@ -3566,7 +3560,7 @@
       </c>
       <c r="Q49" s="4"/>
     </row>
-    <row r="50" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:17" ht="15.75" thickBot="1">
       <c r="B50" s="94" t="s">
         <v>28</v>
       </c>
@@ -3583,7 +3577,7 @@
       <c r="K50" s="66"/>
       <c r="Q50" s="4"/>
     </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:17">
       <c r="B51" s="93" t="s">
         <v>139</v>
       </c>
@@ -3615,7 +3609,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="52" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:17" ht="15.75" thickBot="1">
       <c r="B52" s="93" t="s">
         <v>140</v>
       </c>
@@ -3645,7 +3639,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:17">
       <c r="B53" s="93" t="s">
         <v>141</v>
       </c>
@@ -3677,7 +3671,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:17">
       <c r="B54" s="93" t="s">
         <v>142</v>
       </c>
@@ -3707,7 +3701,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="55" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:17" ht="15.75" thickBot="1">
       <c r="B55" s="93" t="s">
         <v>143</v>
       </c>
@@ -3737,7 +3731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:17">
       <c r="B56" s="93" t="s">
         <v>144</v>
       </c>
@@ -3769,7 +3763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:17">
       <c r="B57" s="93" t="s">
         <v>145</v>
       </c>
@@ -3799,7 +3793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:17">
       <c r="B58" s="93" t="s">
         <v>146</v>
       </c>
@@ -3829,7 +3823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:17">
       <c r="B59" s="93" t="s">
         <v>147</v>
       </c>
@@ -3859,7 +3853,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:17" ht="15.75" thickBot="1">
       <c r="B60" s="93" t="s">
         <v>148</v>
       </c>
@@ -3889,7 +3883,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="61" spans="2:17" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:17" s="3" customFormat="1" ht="15.75" thickBot="1">
       <c r="B61" s="94" t="s">
         <v>15</v>
       </c>
@@ -3905,7 +3899,7 @@
       <c r="J61" s="66"/>
       <c r="K61" s="66"/>
     </row>
-    <row r="62" spans="2:17" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:17" s="3" customFormat="1" ht="15.75" thickBot="1">
       <c r="B62" s="93" t="s">
         <v>149</v>
       </c>
@@ -3937,7 +3931,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="63" spans="2:17" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:17" s="3" customFormat="1" ht="15.75" thickBot="1">
       <c r="B63" s="93" t="s">
         <v>150</v>
       </c>
@@ -3967,7 +3961,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="64" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:17" ht="15.75" thickBot="1">
       <c r="B64" s="94" t="s">
         <v>86</v>
       </c>
@@ -3983,7 +3977,7 @@
       <c r="J64" s="66"/>
       <c r="K64" s="66"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:11">
       <c r="B65" s="93" t="s">
         <v>151</v>
       </c>
@@ -4015,7 +4009,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="66" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:11" ht="15.75" thickBot="1">
       <c r="B66" s="93" t="s">
         <v>152</v>
       </c>
@@ -4045,7 +4039,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:11">
       <c r="B67" s="93" t="s">
         <v>153</v>
       </c>
@@ -4077,7 +4071,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:11">
       <c r="B68" s="93" t="s">
         <v>154</v>
       </c>
@@ -4107,7 +4101,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:11">
       <c r="B69" s="93" t="s">
         <v>155</v>
       </c>
@@ -4137,7 +4131,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="70" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:11" ht="15.75" thickBot="1">
       <c r="B70" s="93" t="s">
         <v>156</v>
       </c>
@@ -4167,7 +4161,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:11">
       <c r="B71" s="93" t="s">
         <v>157</v>
       </c>
@@ -4199,7 +4193,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:11">
       <c r="B72" s="93" t="s">
         <v>158</v>
       </c>
@@ -4229,7 +4223,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:11">
       <c r="B73" s="93" t="s">
         <v>159</v>
       </c>
@@ -4259,7 +4253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:11">
       <c r="B74" s="93" t="s">
         <v>160</v>
       </c>
@@ -4289,7 +4283,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:11">
       <c r="B75" s="93" t="s">
         <v>161</v>
       </c>
@@ -4319,7 +4313,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:11">
       <c r="B76" s="93" t="s">
         <v>162</v>
       </c>
@@ -4349,7 +4343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:11" ht="15.75" thickBot="1">
       <c r="B77" s="93" t="s">
         <v>163</v>
       </c>
@@ -4379,7 +4373,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:11">
       <c r="B78" s="93" t="s">
         <v>164</v>
       </c>
@@ -4411,7 +4405,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:11">
       <c r="B79" s="93" t="s">
         <v>165</v>
       </c>
@@ -4441,7 +4435,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:11">
       <c r="B80" s="93" t="s">
         <v>166</v>
       </c>
@@ -4471,7 +4465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:11">
       <c r="B81" s="93" t="s">
         <v>167</v>
       </c>
@@ -4501,7 +4495,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:11">
       <c r="B82" s="93" t="s">
         <v>168</v>
       </c>
@@ -4531,7 +4525,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:11">
       <c r="B83" s="93" t="s">
         <v>169</v>
       </c>
@@ -4561,7 +4555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:11" ht="15.75" thickBot="1">
       <c r="B84" s="93" t="s">
         <v>170</v>
       </c>
@@ -4591,7 +4585,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="85" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:11" ht="15.75" thickBot="1">
       <c r="B85" s="93" t="s">
         <v>171</v>
       </c>
@@ -4623,7 +4617,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="86" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:11" ht="15.75" thickBot="1">
       <c r="B86" s="94" t="s">
         <v>87</v>
       </c>
@@ -4639,7 +4633,7 @@
       <c r="J86" s="66"/>
       <c r="K86" s="66"/>
     </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:11">
       <c r="B87" s="93" t="s">
         <v>172</v>
       </c>
@@ -4671,7 +4665,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="88" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:11" ht="15.75" thickBot="1">
       <c r="B88" s="93" t="s">
         <v>173</v>
       </c>
@@ -4701,7 +4695,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:11">
       <c r="B89" s="93" t="s">
         <v>174</v>
       </c>
@@ -4733,7 +4727,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:11">
       <c r="B90" s="93" t="s">
         <v>175</v>
       </c>
@@ -4763,7 +4757,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:11">
       <c r="B91" s="93" t="s">
         <v>176</v>
       </c>
@@ -4793,7 +4787,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:11">
       <c r="B92" s="93" t="s">
         <v>177</v>
       </c>
@@ -4823,7 +4817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:11" ht="15.75" thickBot="1">
       <c r="B93" s="93" t="s">
         <v>178</v>
       </c>
@@ -4853,7 +4847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:11" ht="15.75" thickBot="1">
       <c r="B94" s="94" t="s">
         <v>88</v>
       </c>
@@ -4869,7 +4863,7 @@
       <c r="J94" s="66"/>
       <c r="K94" s="66"/>
     </row>
-    <row r="95" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:11" ht="15.75" thickBot="1">
       <c r="B95" s="93" t="s">
         <v>179</v>
       </c>
@@ -4901,7 +4895,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="96" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:11" ht="15.75" thickBot="1">
       <c r="B96" s="93" t="s">
         <v>180</v>
       </c>
@@ -4933,7 +4927,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:11">
       <c r="B97" s="93" t="s">
         <v>181</v>
       </c>
@@ -4961,7 +4955,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:11" ht="15.75" thickBot="1">
       <c r="B98" s="93" t="s">
         <v>182</v>
       </c>
@@ -4991,7 +4985,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:11">
       <c r="B99" s="93" t="s">
         <v>183</v>
       </c>
@@ -5023,7 +5017,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:11">
       <c r="B100" s="93" t="s">
         <v>184</v>
       </c>
@@ -5053,7 +5047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:11" ht="15.75" thickBot="1">
       <c r="B101" s="93" t="s">
         <v>185</v>
       </c>
@@ -5083,7 +5077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:11">
       <c r="B102" s="93" t="s">
         <v>186</v>
       </c>
@@ -5115,7 +5109,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="103" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:11" ht="15.75" thickBot="1">
       <c r="B103" s="93" t="s">
         <v>187</v>
       </c>
@@ -5145,7 +5139,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:11">
       <c r="B104" s="93" t="s">
         <v>188</v>
       </c>
@@ -5177,7 +5171,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="105" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:11" ht="15.75" thickBot="1">
       <c r="B105" s="93" t="s">
         <v>189</v>
       </c>
@@ -5207,7 +5201,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="106" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:11" ht="15.75" thickBot="1">
       <c r="B106" s="93" t="s">
         <v>190</v>
       </c>
@@ -5239,7 +5233,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:11">
       <c r="B107" s="93" t="s">
         <v>191</v>
       </c>
@@ -5271,7 +5265,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="108" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:11" ht="15.75" thickBot="1">
       <c r="B108" s="93" t="s">
         <v>192</v>
       </c>
@@ -5452,29 +5446,29 @@
       <formula>G$4&lt;&gt;"zespolony (stal-beton)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F35:K36 F46:K46 F97:K97 F29:K29 F48:K48 F41:K41 F89:K89" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations disablePrompts="1" count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F35:K36 F46:K46 F97:K97 F29:K29 F48:K48 F41:K41 F89:K89">
       <formula1>"T,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F63:K63" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F63:K63">
       <formula1>"T12,T15,T18,T21,T24,T27"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:K10 F14:K14" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:K10 F14:K14">
       <formula1>"od, do"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:K4" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:K4">
       <formula1>"płytowo-belkowy,zespolony (belki T),skrzynkowy (kablobetonowy),płytowy,zespolony (stal-beton)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F33:K33 F27:K27" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F33:K33 F27:K27">
       <formula1>"2,2,5,3,3,5,4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F28:K28 F34:K34" xr:uid="{00000000-0002-0000-0000-000009000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F28:K28 F34:K34">
       <formula1>"0.50,0.55,0.60,0.65,0.70,0.75,0.80,0.85,0.90"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F42:K42 F37:K37" xr:uid="{00000000-0002-0000-0000-00000A000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F42:K42 F37:K37">
       <formula1>"bariera typowa,bariera linowa,bariera z poręczą 1.1,bariera z poręczą 1.2,bariera z poręczą 1.3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F44:K44 F39:K39" xr:uid="{00000000-0002-0000-0000-00000B000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F44:K44 F39:K39">
       <formula1>"balustrada,balustrada z osłoną przeciwporażeniową,ekran akustyczny,ekran przeciwolśnieniowy"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Dane.xlsx
+++ b/Dane.xlsx
@@ -1,18 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_magazyn\_Python\_skrypty\02_Przekroje\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20EE7AE2-FC11-45C8-9FCF-8E6C37654B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-210" windowWidth="29040" windowHeight="16560" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="00_Dane podstawowe" sheetId="9" r:id="rId1"/>
     <sheet name="01_Zestawienie obiektów" sheetId="8" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="216">
   <si>
     <t>PL - szer</t>
   </si>
@@ -665,13 +671,16 @@
   </si>
   <si>
     <t>WD-08 Jezdnia lewa</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2045,36 +2054,36 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:R108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
+      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" style="68" hidden="1" customWidth="1"/>
@@ -2090,7 +2099,7 @@
     <col min="61" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="15.75" thickBot="1">
+    <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C1" s="1"/>
       <c r="D1" s="68"/>
       <c r="E1" s="1"/>
@@ -2104,7 +2113,7 @@
       <c r="O1" s="68"/>
       <c r="P1" s="68"/>
     </row>
-    <row r="2" spans="2:16">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" s="91" t="s">
         <v>50</v>
       </c>
@@ -2138,7 +2147,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="2:16">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="91" t="s">
         <v>51</v>
       </c>
@@ -2170,7 +2179,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="2:16" ht="15.75" thickBot="1">
+    <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="91" t="s">
         <v>52</v>
       </c>
@@ -2198,7 +2207,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="15.75" thickBot="1">
+    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="108" t="s">
         <v>193</v>
       </c>
@@ -2214,7 +2223,7 @@
       <c r="J5" s="112"/>
       <c r="K5" s="112"/>
     </row>
-    <row r="6" spans="2:16">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="92" t="s">
         <v>48</v>
       </c>
@@ -2227,26 +2236,26 @@
       <c r="E6" s="98" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="51">
-        <v>0</v>
-      </c>
-      <c r="G6" s="51">
-        <v>0</v>
-      </c>
-      <c r="H6" s="51">
-        <v>0</v>
-      </c>
-      <c r="I6" s="51">
-        <v>0</v>
-      </c>
-      <c r="J6" s="51">
-        <v>0</v>
-      </c>
-      <c r="K6" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" ht="15.75" thickBot="1">
+      <c r="F6" s="51" t="s">
+        <v>215</v>
+      </c>
+      <c r="G6" s="51" t="s">
+        <v>215</v>
+      </c>
+      <c r="H6" s="51" t="s">
+        <v>215</v>
+      </c>
+      <c r="I6" s="51" t="s">
+        <v>215</v>
+      </c>
+      <c r="J6" s="51" t="s">
+        <v>215</v>
+      </c>
+      <c r="K6" s="51" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="92" t="s">
         <v>101</v>
       </c>
@@ -2257,26 +2266,26 @@
       <c r="E7" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="52">
-        <v>0</v>
+      <c r="F7" s="52" t="s">
+        <v>215</v>
       </c>
       <c r="G7" s="52">
         <v>16</v>
       </c>
-      <c r="H7" s="52">
-        <v>0</v>
-      </c>
-      <c r="I7" s="52">
-        <v>0</v>
-      </c>
-      <c r="J7" s="52">
-        <v>0</v>
-      </c>
-      <c r="K7" s="52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16">
+      <c r="H7" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="I7" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="J7" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="K7" s="52" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="93" t="s">
         <v>0</v>
       </c>
@@ -2308,7 +2317,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="9" spans="2:16">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="93" t="s">
         <v>1</v>
       </c>
@@ -2340,7 +2349,7 @@
         <v>-2.5</v>
       </c>
     </row>
-    <row r="10" spans="2:16">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="93" t="s">
         <v>35</v>
       </c>
@@ -2368,7 +2377,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="2:16" ht="15.75" thickBot="1">
+    <row r="11" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="93" t="s">
         <v>31</v>
       </c>
@@ -2394,7 +2403,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="12" spans="2:16">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="93" t="s">
         <v>2</v>
       </c>
@@ -2426,7 +2435,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="2:16">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="93" t="s">
         <v>3</v>
       </c>
@@ -2458,7 +2467,7 @@
         <v>-2.5</v>
       </c>
     </row>
-    <row r="14" spans="2:16">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="93" t="s">
         <v>36</v>
       </c>
@@ -2486,7 +2495,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="2:16" ht="15.75" thickBot="1">
+    <row r="15" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="93" t="s">
         <v>32</v>
       </c>
@@ -2512,7 +2521,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="16" spans="2:16">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="93" t="s">
         <v>6</v>
       </c>
@@ -2528,23 +2537,23 @@
       <c r="F16" s="51">
         <v>3</v>
       </c>
-      <c r="G16" s="51">
-        <v>0</v>
+      <c r="G16" s="51" t="s">
+        <v>215</v>
       </c>
       <c r="H16" s="51">
         <v>3</v>
       </c>
-      <c r="I16" s="51">
-        <v>0</v>
-      </c>
-      <c r="J16" s="51">
-        <v>0</v>
-      </c>
-      <c r="K16" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" ht="15.75" thickBot="1">
+      <c r="I16" s="51" t="s">
+        <v>215</v>
+      </c>
+      <c r="J16" s="51" t="s">
+        <v>215</v>
+      </c>
+      <c r="K16" s="51" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="93" t="s">
         <v>7</v>
       </c>
@@ -2558,23 +2567,23 @@
       <c r="F17" s="52">
         <v>-2.5</v>
       </c>
-      <c r="G17" s="52">
-        <v>0</v>
+      <c r="G17" s="52" t="s">
+        <v>215</v>
       </c>
       <c r="H17" s="52">
         <v>2.5</v>
       </c>
-      <c r="I17" s="52">
-        <v>0</v>
-      </c>
-      <c r="J17" s="52">
-        <v>0</v>
-      </c>
-      <c r="K17" s="52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11">
+      <c r="I17" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="J17" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="K17" s="52" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="93" t="s">
         <v>8</v>
       </c>
@@ -2587,26 +2596,26 @@
       <c r="E18" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="53">
-        <v>0</v>
+      <c r="F18" s="53" t="s">
+        <v>215</v>
       </c>
       <c r="G18" s="53">
         <v>3</v>
       </c>
-      <c r="H18" s="53">
-        <v>0</v>
-      </c>
-      <c r="I18" s="53">
-        <v>0</v>
-      </c>
-      <c r="J18" s="53">
-        <v>0</v>
-      </c>
-      <c r="K18" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" ht="15.75" thickBot="1">
+      <c r="H18" s="53" t="s">
+        <v>215</v>
+      </c>
+      <c r="I18" s="53" t="s">
+        <v>215</v>
+      </c>
+      <c r="J18" s="53" t="s">
+        <v>215</v>
+      </c>
+      <c r="K18" s="53" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="93" t="s">
         <v>9</v>
       </c>
@@ -2617,26 +2626,26 @@
       <c r="E19" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="52">
-        <v>0</v>
+      <c r="F19" s="52" t="s">
+        <v>215</v>
       </c>
       <c r="G19" s="52">
         <v>-2.5</v>
       </c>
-      <c r="H19" s="52">
-        <v>0</v>
-      </c>
-      <c r="I19" s="52">
-        <v>0</v>
-      </c>
-      <c r="J19" s="52">
-        <v>0</v>
-      </c>
-      <c r="K19" s="52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11">
+      <c r="H19" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="I19" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="J19" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="K19" s="52" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="93" t="s">
         <v>10</v>
       </c>
@@ -2668,7 +2677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="15.75" thickBot="1">
+    <row r="21" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="93" t="s">
         <v>11</v>
       </c>
@@ -2698,7 +2707,7 @@
         <v>-2.5</v>
       </c>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="93" t="s">
         <v>12</v>
       </c>
@@ -2730,7 +2739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:11" ht="15.75" thickBot="1">
+    <row r="23" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="93" t="s">
         <v>13</v>
       </c>
@@ -2760,7 +2769,7 @@
         <v>-2.5</v>
       </c>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="93" t="s">
         <v>37</v>
       </c>
@@ -2792,7 +2801,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="93" t="s">
         <v>38</v>
       </c>
@@ -2803,26 +2812,26 @@
       <c r="E25" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="F25" s="49">
-        <v>0</v>
-      </c>
-      <c r="G25" s="49">
-        <v>0</v>
-      </c>
-      <c r="H25" s="49">
-        <v>0</v>
-      </c>
-      <c r="I25" s="49">
-        <v>0</v>
-      </c>
-      <c r="J25" s="49">
-        <v>0</v>
-      </c>
-      <c r="K25" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11">
+      <c r="F25" s="49" t="s">
+        <v>215</v>
+      </c>
+      <c r="G25" s="49" t="s">
+        <v>215</v>
+      </c>
+      <c r="H25" s="49" t="s">
+        <v>215</v>
+      </c>
+      <c r="I25" s="49" t="s">
+        <v>215</v>
+      </c>
+      <c r="J25" s="49" t="s">
+        <v>215</v>
+      </c>
+      <c r="K25" s="49" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="93" t="s">
         <v>39</v>
       </c>
@@ -2833,26 +2842,26 @@
       <c r="E26" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="F26" s="49">
-        <v>0</v>
-      </c>
-      <c r="G26" s="49">
-        <v>0</v>
-      </c>
-      <c r="H26" s="49">
-        <v>0</v>
-      </c>
-      <c r="I26" s="49">
-        <v>0</v>
-      </c>
-      <c r="J26" s="49">
-        <v>0</v>
-      </c>
-      <c r="K26" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11">
+      <c r="F26" s="49" t="s">
+        <v>215</v>
+      </c>
+      <c r="G26" s="49" t="s">
+        <v>215</v>
+      </c>
+      <c r="H26" s="49" t="s">
+        <v>215</v>
+      </c>
+      <c r="I26" s="49" t="s">
+        <v>215</v>
+      </c>
+      <c r="J26" s="49" t="s">
+        <v>215</v>
+      </c>
+      <c r="K26" s="49" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="93" t="s">
         <v>4</v>
       </c>
@@ -2882,7 +2891,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="93" t="s">
         <v>29</v>
       </c>
@@ -2912,7 +2921,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="29" spans="2:11" ht="15.75" thickBot="1">
+    <row r="29" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="93" t="s">
         <v>45</v>
       </c>
@@ -2940,7 +2949,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="93" t="s">
         <v>40</v>
       </c>
@@ -2972,7 +2981,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="93" t="s">
         <v>41</v>
       </c>
@@ -2998,11 +3007,11 @@
       <c r="J31" s="49">
         <v>2</v>
       </c>
-      <c r="K31" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11">
+      <c r="K31" s="49" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="93" t="s">
         <v>42</v>
       </c>
@@ -3013,26 +3022,26 @@
       <c r="E32" s="98" t="s">
         <v>55</v>
       </c>
-      <c r="F32" s="49">
-        <v>0</v>
-      </c>
-      <c r="G32" s="49">
-        <v>0</v>
-      </c>
-      <c r="H32" s="49">
-        <v>0</v>
-      </c>
-      <c r="I32" s="49">
-        <v>0</v>
-      </c>
-      <c r="J32" s="49">
-        <v>0</v>
-      </c>
-      <c r="K32" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18">
+      <c r="F32" s="49" t="s">
+        <v>215</v>
+      </c>
+      <c r="G32" s="49" t="s">
+        <v>215</v>
+      </c>
+      <c r="H32" s="49" t="s">
+        <v>215</v>
+      </c>
+      <c r="I32" s="49" t="s">
+        <v>215</v>
+      </c>
+      <c r="J32" s="49" t="s">
+        <v>215</v>
+      </c>
+      <c r="K32" s="49" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B33" s="93" t="s">
         <v>5</v>
       </c>
@@ -3062,7 +3071,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="34" spans="2:18">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B34" s="93" t="s">
         <v>30</v>
       </c>
@@ -3092,7 +3101,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="35" spans="2:18" ht="15.75" thickBot="1">
+    <row r="35" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="93" t="s">
         <v>46</v>
       </c>
@@ -3120,7 +3129,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="2:18">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B36" s="93" t="s">
         <v>14</v>
       </c>
@@ -3151,7 +3160,7 @@
       </c>
       <c r="Q36" s="4"/>
     </row>
-    <row r="37" spans="2:18">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B37" s="93" t="s">
         <v>16</v>
       </c>
@@ -3181,7 +3190,7 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
     </row>
-    <row r="38" spans="2:18">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B38" s="93" t="s">
         <v>17</v>
       </c>
@@ -3213,7 +3222,7 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
     </row>
-    <row r="39" spans="2:18">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39" s="93" t="s">
         <v>26</v>
       </c>
@@ -3243,7 +3252,7 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
     </row>
-    <row r="40" spans="2:18" ht="15.75" thickBot="1">
+    <row r="40" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="93" t="s">
         <v>27</v>
       </c>
@@ -3277,7 +3286,7 @@
       </c>
       <c r="R40" s="4"/>
     </row>
-    <row r="41" spans="2:18">
+    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" s="93" t="s">
         <v>18</v>
       </c>
@@ -3309,7 +3318,7 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
     </row>
-    <row r="42" spans="2:18">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B42" s="93" t="s">
         <v>19</v>
       </c>
@@ -3339,7 +3348,7 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
     </row>
-    <row r="43" spans="2:18">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B43" s="93" t="s">
         <v>20</v>
       </c>
@@ -3371,7 +3380,7 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
     </row>
-    <row r="44" spans="2:18">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B44" s="93" t="s">
         <v>43</v>
       </c>
@@ -3401,7 +3410,7 @@
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
     </row>
-    <row r="45" spans="2:18" ht="15.75" thickBot="1">
+    <row r="45" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="93" t="s">
         <v>44</v>
       </c>
@@ -3435,7 +3444,7 @@
       </c>
       <c r="R45" s="4"/>
     </row>
-    <row r="46" spans="2:18">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B46" s="93" t="s">
         <v>21</v>
       </c>
@@ -3467,7 +3476,7 @@
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
     </row>
-    <row r="47" spans="2:18" ht="15.75" thickBot="1">
+    <row r="47" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="93" t="s">
         <v>22</v>
       </c>
@@ -3498,7 +3507,7 @@
       </c>
       <c r="Q47" s="4"/>
     </row>
-    <row r="48" spans="2:18">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B48" s="93" t="s">
         <v>23</v>
       </c>
@@ -3529,7 +3538,7 @@
       </c>
       <c r="Q48" s="4"/>
     </row>
-    <row r="49" spans="2:17" ht="15.75" thickBot="1">
+    <row r="49" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="93" t="s">
         <v>25</v>
       </c>
@@ -3560,7 +3569,7 @@
       </c>
       <c r="Q49" s="4"/>
     </row>
-    <row r="50" spans="2:17" ht="15.75" thickBot="1">
+    <row r="50" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="94" t="s">
         <v>28</v>
       </c>
@@ -3577,7 +3586,7 @@
       <c r="K50" s="66"/>
       <c r="Q50" s="4"/>
     </row>
-    <row r="51" spans="2:17">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B51" s="93" t="s">
         <v>139</v>
       </c>
@@ -3609,7 +3618,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="52" spans="2:17" ht="15.75" thickBot="1">
+    <row r="52" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="93" t="s">
         <v>140</v>
       </c>
@@ -3639,7 +3648,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="53" spans="2:17">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B53" s="93" t="s">
         <v>141</v>
       </c>
@@ -3671,7 +3680,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="54" spans="2:17">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B54" s="93" t="s">
         <v>142</v>
       </c>
@@ -3701,7 +3710,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="55" spans="2:17" ht="15.75" thickBot="1">
+    <row r="55" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="93" t="s">
         <v>143</v>
       </c>
@@ -3731,7 +3740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:17">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B56" s="93" t="s">
         <v>144</v>
       </c>
@@ -3763,7 +3772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="2:17">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B57" s="93" t="s">
         <v>145</v>
       </c>
@@ -3793,7 +3802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:17">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B58" s="93" t="s">
         <v>146</v>
       </c>
@@ -3823,7 +3832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="2:17">
+    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B59" s="93" t="s">
         <v>147</v>
       </c>
@@ -3853,7 +3862,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="2:17" ht="15.75" thickBot="1">
+    <row r="60" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="93" t="s">
         <v>148</v>
       </c>
@@ -3883,7 +3892,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="61" spans="2:17" s="3" customFormat="1" ht="15.75" thickBot="1">
+    <row r="61" spans="2:17" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="94" t="s">
         <v>15</v>
       </c>
@@ -3899,7 +3908,7 @@
       <c r="J61" s="66"/>
       <c r="K61" s="66"/>
     </row>
-    <row r="62" spans="2:17" s="3" customFormat="1" ht="15.75" thickBot="1">
+    <row r="62" spans="2:17" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="93" t="s">
         <v>149</v>
       </c>
@@ -3931,7 +3940,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="63" spans="2:17" s="3" customFormat="1" ht="15.75" thickBot="1">
+    <row r="63" spans="2:17" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63" s="93" t="s">
         <v>150</v>
       </c>
@@ -3961,7 +3970,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="64" spans="2:17" ht="15.75" thickBot="1">
+    <row r="64" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="94" t="s">
         <v>86</v>
       </c>
@@ -3977,7 +3986,7 @@
       <c r="J64" s="66"/>
       <c r="K64" s="66"/>
     </row>
-    <row r="65" spans="2:11">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B65" s="93" t="s">
         <v>151</v>
       </c>
@@ -4009,7 +4018,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="66" spans="2:11" ht="15.75" thickBot="1">
+    <row r="66" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="93" t="s">
         <v>152</v>
       </c>
@@ -4039,7 +4048,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="67" spans="2:11">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B67" s="93" t="s">
         <v>153</v>
       </c>
@@ -4071,7 +4080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="2:11">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B68" s="93" t="s">
         <v>154</v>
       </c>
@@ -4101,7 +4110,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="2:11">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B69" s="93" t="s">
         <v>155</v>
       </c>
@@ -4131,7 +4140,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="70" spans="2:11" ht="15.75" thickBot="1">
+    <row r="70" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B70" s="93" t="s">
         <v>156</v>
       </c>
@@ -4161,7 +4170,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="71" spans="2:11">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B71" s="93" t="s">
         <v>157</v>
       </c>
@@ -4193,7 +4202,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="72" spans="2:11">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B72" s="93" t="s">
         <v>158</v>
       </c>
@@ -4223,7 +4232,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="73" spans="2:11">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B73" s="93" t="s">
         <v>159</v>
       </c>
@@ -4253,7 +4262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:11">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B74" s="93" t="s">
         <v>160</v>
       </c>
@@ -4283,7 +4292,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="75" spans="2:11">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B75" s="93" t="s">
         <v>161</v>
       </c>
@@ -4313,7 +4322,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="76" spans="2:11">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B76" s="93" t="s">
         <v>162</v>
       </c>
@@ -4343,7 +4352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:11" ht="15.75" thickBot="1">
+    <row r="77" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="93" t="s">
         <v>163</v>
       </c>
@@ -4373,7 +4382,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="78" spans="2:11">
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B78" s="93" t="s">
         <v>164</v>
       </c>
@@ -4405,7 +4414,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="79" spans="2:11">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B79" s="93" t="s">
         <v>165</v>
       </c>
@@ -4435,7 +4444,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="80" spans="2:11">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B80" s="93" t="s">
         <v>166</v>
       </c>
@@ -4465,7 +4474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:11">
+    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B81" s="93" t="s">
         <v>167</v>
       </c>
@@ -4495,7 +4504,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="82" spans="2:11">
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B82" s="93" t="s">
         <v>168</v>
       </c>
@@ -4525,7 +4534,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="83" spans="2:11">
+    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B83" s="93" t="s">
         <v>169</v>
       </c>
@@ -4555,7 +4564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:11" ht="15.75" thickBot="1">
+    <row r="84" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B84" s="93" t="s">
         <v>170</v>
       </c>
@@ -4585,7 +4594,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="85" spans="2:11" ht="15.75" thickBot="1">
+    <row r="85" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B85" s="93" t="s">
         <v>171</v>
       </c>
@@ -4617,7 +4626,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="86" spans="2:11" ht="15.75" thickBot="1">
+    <row r="86" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B86" s="94" t="s">
         <v>87</v>
       </c>
@@ -4633,7 +4642,7 @@
       <c r="J86" s="66"/>
       <c r="K86" s="66"/>
     </row>
-    <row r="87" spans="2:11">
+    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B87" s="93" t="s">
         <v>172</v>
       </c>
@@ -4665,7 +4674,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="88" spans="2:11" ht="15.75" thickBot="1">
+    <row r="88" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B88" s="93" t="s">
         <v>173</v>
       </c>
@@ -4695,7 +4704,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="89" spans="2:11">
+    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B89" s="93" t="s">
         <v>174</v>
       </c>
@@ -4727,7 +4736,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="2:11">
+    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B90" s="93" t="s">
         <v>175</v>
       </c>
@@ -4757,7 +4766,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="91" spans="2:11">
+    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B91" s="93" t="s">
         <v>176</v>
       </c>
@@ -4787,7 +4796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="2:11">
+    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B92" s="93" t="s">
         <v>177</v>
       </c>
@@ -4817,7 +4826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="2:11" ht="15.75" thickBot="1">
+    <row r="93" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B93" s="93" t="s">
         <v>178</v>
       </c>
@@ -4847,7 +4856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="2:11" ht="15.75" thickBot="1">
+    <row r="94" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B94" s="94" t="s">
         <v>88</v>
       </c>
@@ -4863,7 +4872,7 @@
       <c r="J94" s="66"/>
       <c r="K94" s="66"/>
     </row>
-    <row r="95" spans="2:11" ht="15.75" thickBot="1">
+    <row r="95" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B95" s="93" t="s">
         <v>179</v>
       </c>
@@ -4895,7 +4904,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="96" spans="2:11" ht="15.75" thickBot="1">
+    <row r="96" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B96" s="93" t="s">
         <v>180</v>
       </c>
@@ -4927,7 +4936,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="97" spans="2:11">
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B97" s="93" t="s">
         <v>181</v>
       </c>
@@ -4955,7 +4964,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="2:11" ht="15.75" thickBot="1">
+    <row r="98" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B98" s="93" t="s">
         <v>182</v>
       </c>
@@ -4985,7 +4994,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="99" spans="2:11">
+    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B99" s="93" t="s">
         <v>183</v>
       </c>
@@ -5017,7 +5026,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="100" spans="2:11">
+    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B100" s="93" t="s">
         <v>184</v>
       </c>
@@ -5047,7 +5056,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="2:11" ht="15.75" thickBot="1">
+    <row r="101" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="93" t="s">
         <v>185</v>
       </c>
@@ -5077,7 +5086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="2:11">
+    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B102" s="93" t="s">
         <v>186</v>
       </c>
@@ -5109,7 +5118,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="103" spans="2:11" ht="15.75" thickBot="1">
+    <row r="103" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B103" s="93" t="s">
         <v>187</v>
       </c>
@@ -5139,7 +5148,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="104" spans="2:11">
+    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B104" s="93" t="s">
         <v>188</v>
       </c>
@@ -5171,7 +5180,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="105" spans="2:11" ht="15.75" thickBot="1">
+    <row r="105" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B105" s="93" t="s">
         <v>189</v>
       </c>
@@ -5201,7 +5210,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="106" spans="2:11" ht="15.75" thickBot="1">
+    <row r="106" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B106" s="93" t="s">
         <v>190</v>
       </c>
@@ -5233,7 +5242,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="107" spans="2:11">
+    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B107" s="93" t="s">
         <v>191</v>
       </c>
@@ -5265,7 +5274,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="108" spans="2:11" ht="15.75" thickBot="1">
+    <row r="108" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B108" s="93" t="s">
         <v>192</v>
       </c>
@@ -5447,28 +5456,28 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F35:K36 F46:K46 F97:K97 F29:K29 F48:K48 F41:K41 F89:K89">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F35:K36 F46:K46 F97:K97 F29:K29 F48:K48 F41:K41 F89:K89" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"T,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F63:K63">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F63:K63" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"T12,T15,T18,T21,T24,T27"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:K10 F14:K14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F10:K10 F14:K14" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"od, do"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:K4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:K4" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>"płytowo-belkowy,zespolony (belki T),skrzynkowy (kablobetonowy),płytowy,zespolony (stal-beton)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F33:K33 F27:K27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F33:K33 F27:K27" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>"2,2,5,3,3,5,4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F28:K28 F34:K34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F28:K28 F34:K34" xr:uid="{00000000-0002-0000-0100-000005000000}">
       <formula1>"0.50,0.55,0.60,0.65,0.70,0.75,0.80,0.85,0.90"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F42:K42 F37:K37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F42:K42 F37:K37" xr:uid="{00000000-0002-0000-0100-000006000000}">
       <formula1>"bariera typowa,bariera linowa,bariera z poręczą 1.1,bariera z poręczą 1.2,bariera z poręczą 1.3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F44:K44 F39:K39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F44:K44 F39:K39" xr:uid="{00000000-0002-0000-0100-000007000000}">
       <formula1>"balustrada,balustrada z osłoną przeciwporażeniową,ekran akustyczny,ekran przeciwolśnieniowy"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Dane.xlsx
+++ b/Dane.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_magazyn\_Python\_skrypty\02_Przekroje\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20EE7AE2-FC11-45C8-9FCF-8E6C37654B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA46F7BB-2150-4534-ABD0-6CB67548B2AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-210" windowWidth="29040" windowHeight="18240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="00_Dane podstawowe" sheetId="9" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="219">
   <si>
     <t>PL - szer</t>
   </si>
@@ -674,6 +674,15 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Ramka</t>
+  </si>
+  <si>
+    <t>ramka</t>
+  </si>
+  <si>
+    <t>15x30</t>
   </si>
 </sst>
 </file>
@@ -787,7 +796,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1105,11 +1114,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1447,6 +1469,13 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1808,7 +1837,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1860,7 +1889,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2062,13 +2091,177 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="20.7109375" style="115" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2" s="113" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2" s="113" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="113" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+    </row>
+    <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
+    </row>
+    <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
+    </row>
+    <row r="6" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+    </row>
+    <row r="7" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+    </row>
+    <row r="8" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+    </row>
+    <row r="9" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="114"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
+    </row>
+    <row r="10" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+    </row>
+    <row r="11" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="114"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
+    </row>
+    <row r="12" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+    </row>
+    <row r="13" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="114"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
+    </row>
+    <row r="14" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="113"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
+    </row>
+    <row r="15" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="114"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="114"/>
+    </row>
+    <row r="16" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="113"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="113"/>
+    </row>
+    <row r="17" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="114"/>
+      <c r="D17" s="114"/>
+      <c r="E17" s="114"/>
+    </row>
+    <row r="18" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="113"/>
+      <c r="D18" s="113"/>
+      <c r="E18" s="113"/>
+    </row>
+    <row r="19" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="114"/>
+      <c r="D19" s="114"/>
+      <c r="E19" s="114"/>
+    </row>
+    <row r="20" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="113"/>
+      <c r="D20" s="113"/>
+      <c r="E20" s="113"/>
+    </row>
+    <row r="21" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="114"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="114"/>
+    </row>
+    <row r="22" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="113"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="113"/>
+    </row>
+    <row r="23" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="114"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="114"/>
+    </row>
+    <row r="24" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="113"/>
+      <c r="D24" s="113"/>
+      <c r="E24" s="113"/>
+    </row>
+    <row r="25" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="114"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="114"/>
+    </row>
+    <row r="26" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="113"/>
+      <c r="D26" s="113"/>
+      <c r="E26" s="113"/>
+    </row>
+    <row r="27" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="114"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="114"/>
+    </row>
+    <row r="28" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="113"/>
+      <c r="D28" s="113"/>
+      <c r="E28" s="113"/>
+    </row>
+    <row r="29" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="114"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="114"/>
+    </row>
+    <row r="30" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="113"/>
+      <c r="D30" s="113"/>
+      <c r="E30" s="113"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2080,7 +2273,7 @@
       <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2689,10 +2882,10 @@
         <v>56</v>
       </c>
       <c r="F21" s="55">
+        <v>8</v>
+      </c>
+      <c r="G21" s="55">
         <v>2.5</v>
-      </c>
-      <c r="G21" s="55">
-        <v>-2.5</v>
       </c>
       <c r="H21" s="55">
         <v>2.5</v>
@@ -2724,7 +2917,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="53">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H22" s="53">
         <v>1</v>
@@ -2751,7 +2944,7 @@
         <v>56</v>
       </c>
       <c r="F23" s="56">
-        <v>-2.5</v>
+        <v>2.5</v>
       </c>
       <c r="G23" s="56">
         <v>2.5</v>
